--- a/xlsx/country_comparison/understood_score_mean.xlsx
+++ b/xlsx/country_comparison/understood_score_mean.xlsx
@@ -395,7 +395,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.81651258773704</v>
+        <v>1.8165125896307</v>
       </c>
       <c r="C2" t="n">
         <v>2.00749161255324</v>
